--- a/testdata/Create session.xlsx
+++ b/testdata/Create session.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\iLRNU application\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoges\PycharmProjects\ilrnu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAFB915-64AB-4909-AA85-54C97F5D1FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C6E23-4823-4B4C-87F5-826F2D322481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logintutor" sheetId="1" r:id="rId1"/>
-    <sheet name="Create session" sheetId="4" r:id="rId2"/>
+    <sheet name="Createsession" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -49,30 +49,9 @@
     <t>yatutor200@gmail.com</t>
   </si>
   <si>
-    <t>AM/PM</t>
-  </si>
-  <si>
-    <t>Session title</t>
-  </si>
-  <si>
-    <t>Session description</t>
-  </si>
-  <si>
-    <t>Session type</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
-    <t>Session duration</t>
-  </si>
-  <si>
-    <t>Add Student1</t>
-  </si>
-  <si>
-    <t>Add Student2</t>
-  </si>
-  <si>
     <t>istu1@yahoo.com</t>
   </si>
   <si>
@@ -82,57 +61,18 @@
     <t>2 Hours</t>
   </si>
   <si>
-    <t>One Day session</t>
-  </si>
-  <si>
-    <t>Session Address</t>
-  </si>
-  <si>
-    <t>Sterling Heights,F2 hebbal outer ring road Bangalore -45</t>
-  </si>
-  <si>
-    <t>Session sdate</t>
-  </si>
-  <si>
-    <t>Session stime hour</t>
-  </si>
-  <si>
-    <t>Session stime min</t>
-  </si>
-  <si>
-    <t>Session etime hour</t>
-  </si>
-  <si>
-    <t>Session etime min</t>
-  </si>
-  <si>
-    <t>Session edate</t>
-  </si>
-  <si>
     <t>3 Hours</t>
   </si>
   <si>
-    <t>Algebra is one of the broad areas of mathematics, together with number theory, geometry and analysis. In its most general form, algebra is the study of mathematical symbols and the rules for manipulating these symbols; it is a unifying thread of almost all of mathematics.</t>
-  </si>
-  <si>
     <t>Algebra</t>
   </si>
   <si>
-    <t>Calculus, originally called infinitesimal calculus or "the calculus of infinitesimals", is the mathematical study of continuous change, in the same way that geometry is the study of shape and algebra is the study of generalizations of arithmetic operations</t>
-  </si>
-  <si>
     <t>Calculus</t>
   </si>
   <si>
-    <t>Session</t>
-  </si>
-  <si>
     <t>Algebra1</t>
   </si>
   <si>
-    <t>Default1</t>
-  </si>
-  <si>
     <t>InPersonTutor</t>
   </si>
   <si>
@@ -142,35 +82,188 @@
     <t>Algebra2</t>
   </si>
   <si>
-    <t>Testcases</t>
-  </si>
-  <si>
-    <t>Default setting for create session</t>
-  </si>
-  <si>
-    <t>InPersonTutor for create session</t>
-  </si>
-  <si>
-    <t>Live Tutoring for create session</t>
-  </si>
-  <si>
-    <t>Default setting for create session(negative)Slot already booked</t>
-  </si>
-  <si>
-    <t>LiveTutoring</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Sessiontitle</t>
+  </si>
+  <si>
+    <t>Sessiontype</t>
+  </si>
+  <si>
+    <t>Sessionduration</t>
+  </si>
+  <si>
+    <t>AddStudent1</t>
+  </si>
+  <si>
+    <t>Live Tutoring</t>
+  </si>
+  <si>
+    <t>Sessiontimezone</t>
+  </si>
+  <si>
+    <t>(GMT+05:30) India Standard Time - Kolkata</t>
+  </si>
+  <si>
+    <t>Sessionsmonth</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Sessionsyear</t>
+  </si>
+  <si>
+    <t>Sessionhour</t>
+  </si>
+  <si>
+    <t>Sessionmin</t>
+  </si>
+  <si>
+    <t>SessionAMPM</t>
+  </si>
+  <si>
+    <t>Algebra3</t>
+  </si>
+  <si>
+    <t>Algebra4</t>
+  </si>
+  <si>
+    <t>Algebra5</t>
+  </si>
+  <si>
+    <t>Algebra6</t>
+  </si>
+  <si>
+    <t>Algebra7</t>
+  </si>
+  <si>
+    <t>Algebra8</t>
+  </si>
+  <si>
+    <t>Algebra9</t>
+  </si>
+  <si>
+    <t>Algebra10</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1 Hours</t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>istu6@yahoo.com</t>
+  </si>
+  <si>
+    <t>istu7@yahoo.com</t>
+  </si>
+  <si>
+    <t>Searcharea</t>
+  </si>
+  <si>
+    <t>Sessiontype1</t>
+  </si>
+  <si>
+    <t>addressTitle</t>
+  </si>
+  <si>
+    <t>houseFlat</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>Sessionday</t>
+  </si>
+  <si>
+    <t>repeatEvery</t>
+  </si>
+  <si>
+    <t>repeatEveryWeek</t>
+  </si>
+  <si>
+    <t>repeatEveryday</t>
+  </si>
+  <si>
+    <t>repeatonSunday</t>
+  </si>
+  <si>
+    <t>repeatonMonday</t>
+  </si>
+  <si>
+    <t>repeatonTuesday</t>
+  </si>
+  <si>
+    <t>repeatonWednesday</t>
+  </si>
+  <si>
+    <t>repeatonThursday</t>
+  </si>
+  <si>
+    <t>repeatonFriday</t>
+  </si>
+  <si>
+    <t>repeatonSaturadayrepeatMonth</t>
+  </si>
+  <si>
+    <t>repeatyear</t>
+  </si>
+  <si>
+    <t>repeatEvery1</t>
+  </si>
+  <si>
+    <t>repeatMonth</t>
+  </si>
+  <si>
+    <t>addStudent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +317,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,12 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -295,7 +388,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -708,245 +804,1462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A05995-250A-49DD-854A-5D8EF47B53F8}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="Q3" sqref="Q3:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="6" customWidth="1"/>
-    <col min="9" max="11" width="11.109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="11" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17" style="6" customWidth="1"/>
+    <col min="9" max="9" width="37.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="6" customWidth="1"/>
+    <col min="13" max="14" width="11.109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="11" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="15" style="6" customWidth="1"/>
+    <col min="33" max="34" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16" style="6" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6">
+        <v>14</v>
+      </c>
+      <c r="O1" s="6">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>17</v>
+      </c>
+      <c r="R1" s="6">
+        <v>18</v>
+      </c>
+      <c r="S1" s="6">
+        <v>19</v>
+      </c>
+      <c r="T1" s="6">
+        <v>20</v>
+      </c>
+      <c r="U1" s="6">
+        <v>21</v>
+      </c>
+      <c r="V1" s="6">
+        <v>22</v>
+      </c>
+      <c r="W1" s="6">
+        <v>23</v>
+      </c>
+      <c r="X1" s="6">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="5" customFormat="1" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="13">
+        <v>16</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="12">
+        <v>30</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+    </row>
+    <row r="4" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="13">
+        <v>16</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="12">
+        <v>31</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L5" s="13">
+        <v>16</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L6" s="13">
+        <v>16</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="12">
+        <v>30</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+    </row>
+    <row r="7" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L7" s="13">
+        <v>16</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12">
+        <v>31</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L8" s="13">
+        <v>16</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="12">
+        <v>32</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="13">
+        <v>16</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="12">
+        <v>33</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L10" s="13">
+        <v>16</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="12">
+        <v>34</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="13">
+        <v>16</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="12">
+        <v>35</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+    </row>
+    <row r="12" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L12" s="13">
+        <v>16</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="12">
+        <v>36</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+    </row>
+    <row r="13" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L13" s="13">
+        <v>16</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="12">
+        <v>37</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="AE13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+    </row>
+    <row r="14" spans="1:35" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2022</v>
+      </c>
+      <c r="L14" s="13">
+        <v>16</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N14" s="12">
+        <v>38</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="13">
-        <v>44536</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="14">
-        <v>30</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="87.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="13">
-        <v>44552</v>
-      </c>
-      <c r="H3" s="13">
-        <v>44554</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="N3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="13">
-        <v>44550</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="14">
-        <v>30</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="13">
-        <v>44538</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="14">
-        <v>30</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="9"/>
+      <c r="P14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+    </row>
+    <row r="17" spans="16:32" x14ac:dyDescent="0.3">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AD7" r:id="rId1" xr:uid="{4989BB55-8ED2-4A84-BEAC-4EC2D7578447}"/>
+    <hyperlink ref="AE7" r:id="rId2" xr:uid="{DF1774EB-C448-487E-AFF4-4E739C2B84EA}"/>
+    <hyperlink ref="AD12" r:id="rId3" xr:uid="{80DE17C0-0832-4C92-BC5A-9C25AAA81D46}"/>
+    <hyperlink ref="AE12" r:id="rId4" xr:uid="{07C978AB-6141-4B48-9B65-1DAAE800F2E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>